--- a/src/main/resources/excel/map/mapGates.xlsx
+++ b/src/main/resources/excel/map/mapGates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021054B8-5BBE-4018-9972-95B7057D6AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6563C2B-673A-466E-BCAC-D2188BE29B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10656" yWindow="1440" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thisMap</t>
+    <t>location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nextMap</t>
+    <t>thisMapId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>location</t>
+    <t>nextMapId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -378,13 +378,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
